--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test4/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>352.729</v>
+        <v>357.458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.503</v>
+        <v>0.529</v>
       </c>
       <c r="G2" t="n">
-        <v>0.53</v>
+        <v>0.504</v>
       </c>
       <c r="H2" t="n">
-        <v>18.917</v>
+        <v>18.488</v>
       </c>
       <c r="I2" t="n">
-        <v>15.081</v>
+        <v>15.448</v>
       </c>
     </row>
     <row r="3">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>304.728</v>
+        <v>305.67</v>
       </c>
       <c r="F3" t="n">
-        <v>0.579</v>
+        <v>0.614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="H3" t="n">
-        <v>17.379</v>
+        <v>16.735</v>
       </c>
       <c r="I3" t="n">
-        <v>15.683</v>
+        <v>15.228</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>338.507</v>
+        <v>325.52</v>
       </c>
       <c r="F4" t="n">
-        <v>0.504</v>
+        <v>0.59</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H4" t="n">
-        <v>18.835</v>
+        <v>17.148</v>
       </c>
       <c r="I4" t="n">
-        <v>15.012</v>
+        <v>14.507</v>
       </c>
     </row>
     <row r="5">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>291.707</v>
+        <v>249.134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.644</v>
+        <v>0.681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.442</v>
+        <v>0.596</v>
       </c>
       <c r="H5" t="n">
-        <v>15.964</v>
+        <v>15.148</v>
       </c>
       <c r="I5" t="n">
-        <v>16.829</v>
+        <v>14.609</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>850.29</v>
+        <v>254.187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.523</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.391</v>
+        <v>0.433</v>
       </c>
       <c r="H6" t="n">
-        <v>18.67</v>
+        <v>15.127</v>
       </c>
       <c r="I6" t="n">
-        <v>17.703</v>
+        <v>17.043</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>237.094</v>
+        <v>224.631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.609</v>
+        <v>0.635</v>
       </c>
       <c r="H7" t="n">
-        <v>14.963</v>
+        <v>14.645</v>
       </c>
       <c r="I7" t="n">
-        <v>13.883</v>
+        <v>13.651</v>
       </c>
     </row>
     <row r="8">
@@ -697,19 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>290.471</v>
+        <v>258.144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.637</v>
+        <v>0.666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.436</v>
+        <v>0.495</v>
       </c>
       <c r="H8" t="n">
-        <v>16.243</v>
+        <v>15.5</v>
       </c>
       <c r="I8" t="n">
-        <v>16.961</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="9">
@@ -730,19 +730,85 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>224.903</v>
+        <v>193.979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.724</v>
+        <v>0.751</v>
       </c>
       <c r="G9" t="n">
-        <v>0.629</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>14.17</v>
+        <v>13.432</v>
       </c>
       <c r="I9" t="n">
-        <v>13.537</v>
+        <v>14.209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
+        <v>329.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.197</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>185.44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.568</v>
       </c>
     </row>
   </sheetData>
